--- a/F-2_配布資料/04_外部設計書_F2.xlsx
+++ b/F-2_配布資料/04_外部設計書_F2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo7\F-2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26521EB0-7DF5-4698-90A2-EA6A4426C382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7792FDAC-C578-4D44-B149-2AC57CF7D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-900" yWindow="0" windowWidth="20790" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -939,6 +939,26 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※ソートと非表示は未完成</t>
+    <rPh sb="5" eb="8">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ミカンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※空欄NGは未完成</t>
+    <rPh sb="1" eb="3">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ミカンセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1432,6 +1452,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1500,24 +1538,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2075,158 +2095,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="46" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="47" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47" t="s">
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47" t="s">
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="34" t="s">
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="54" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="55"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="56" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="58">
+      <c r="X2" s="35"/>
+      <c r="Y2" s="34">
         <v>44718</v>
       </c>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="59" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="60">
-        <v>44718</v>
-      </c>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="62"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="37">
+        <v>44739</v>
+      </c>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="48" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="53"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="59"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -2495,15 +2515,15 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -2514,15 +2534,15 @@
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
-      <c r="Y11" s="35" t="s">
+      <c r="Y11" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
@@ -2541,13 +2561,13 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -2558,13 +2578,13 @@
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
       <c r="AF12" s="9"/>
       <c r="AG12" s="9"/>
       <c r="AH12" s="9"/>
@@ -3967,15 +3987,15 @@
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
@@ -4011,13 +4031,13 @@
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -4029,15 +4049,15 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
-      <c r="X47" s="35" t="s">
+      <c r="X47" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
       <c r="AE47" s="9"/>
       <c r="AF47" s="9"/>
       <c r="AG47" s="9"/>
@@ -4073,13 +4093,13 @@
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="36"/>
-      <c r="AD48" s="36"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="42"/>
+      <c r="AC48" s="42"/>
+      <c r="AD48" s="42"/>
       <c r="AE48" s="9"/>
       <c r="AF48" s="9"/>
       <c r="AG48" s="9"/>
@@ -4416,7 +4436,9 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
+      <c r="R56" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
@@ -4467,7 +4489,9 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
+      <c r="W57" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
@@ -7484,12 +7508,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="H11:N12"/>
-    <mergeCell ref="Y11:AE12"/>
     <mergeCell ref="X47:AD48"/>
     <mergeCell ref="F46:L47"/>
     <mergeCell ref="A1:J3"/>
@@ -7503,6 +7521,12 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="H11:N12"/>
+    <mergeCell ref="Y11:AE12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
